--- a/static/analysis_corr.xlsx
+++ b/static/analysis_corr.xlsx
@@ -1,96 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirzafarangi/Desktop/meta-analysis/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alenka/Desktop/meta-analysis/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41676C89-2951-8548-B68B-E60BF442BEBA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63594555-A6BF-2E4F-A31F-4159CD213325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="520" windowWidth="28240" windowHeight="15940" xr2:uid="{705A08C2-2E62-1C47-B8E8-4A0A1A64469E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Study</t>
   </si>
   <si>
-    <t>Bisch 2017</t>
-  </si>
-  <si>
-    <t>Corbisiero 2017</t>
-  </si>
-  <si>
-    <t>Irastorza 2016</t>
-  </si>
-  <si>
-    <t>Miller 2015</t>
-  </si>
-  <si>
-    <t>Mitchell 2012</t>
-  </si>
-  <si>
-    <t>Rapport 2012</t>
-  </si>
-  <si>
-    <t>Reimherr 2015</t>
-  </si>
-  <si>
-    <t>Richard-Lepouriel 2015</t>
-  </si>
-  <si>
-    <t>Skirrow &amp; Asherson</t>
-  </si>
-  <si>
-    <t>Surman 2015</t>
-  </si>
-  <si>
     <t>r</t>
   </si>
   <si>
     <t>Moderator</t>
   </si>
   <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -177,7 +159,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -193,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -492,7 +474,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E14" sqref="E2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,24 +493,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
+      <c r="C2" s="2">
+        <v>0.33</v>
       </c>
       <c r="D2" s="2">
         <v>22</v>
@@ -536,13 +518,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
+      <c r="C3" s="2">
+        <v>0.44</v>
       </c>
       <c r="D3" s="2">
         <v>23</v>
@@ -550,13 +532,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>44</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
+      <c r="C4" s="2">
+        <v>0.55000000000000004</v>
       </c>
       <c r="D4" s="2">
         <v>24</v>
@@ -564,13 +546,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>78</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
+      <c r="C5" s="2">
+        <v>0.22</v>
       </c>
       <c r="D5" s="2">
         <v>22</v>
@@ -578,13 +560,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>311</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
+      <c r="C6" s="2">
+        <v>0.11</v>
       </c>
       <c r="D6" s="2">
         <v>25</v>
@@ -592,13 +574,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>144</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
+      <c r="C7" s="2">
+        <v>0.23</v>
       </c>
       <c r="D7" s="2">
         <v>26</v>
@@ -606,13 +588,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>79</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
+      <c r="C8" s="2">
+        <v>0.88</v>
       </c>
       <c r="D8" s="2">
         <v>27</v>
@@ -620,13 +602,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>59</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
+      <c r="C9" s="2">
+        <v>0.66</v>
       </c>
       <c r="D9" s="2">
         <v>21</v>
@@ -634,13 +616,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>214</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
+      <c r="C10" s="2">
+        <v>0.55000000000000004</v>
       </c>
       <c r="D10" s="2">
         <v>20</v>
@@ -648,13 +630,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>110</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
+      <c r="C11" s="2">
+        <v>0.73</v>
       </c>
       <c r="D11" s="2">
         <v>24</v>
